--- a/public/templates/Reports/Client Report.xlsx
+++ b/public/templates/Reports/Client Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/lumen/public/templates/Reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nelsontan/Projects/Lumen/public/templates/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB00A26-1F7A-1443-80A5-E7472FB0E684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2797FD4D-1E52-7249-A541-59BDE1557456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,20 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -31,19 +40,49 @@
     <t>CLIENT ID</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
-    <t>BALANCE</t>
-  </si>
-  <si>
-    <t>ACCRUED INTEREST</t>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>MIDDLENAME</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>BIRTHDAY</t>
+  </si>
+  <si>
+    <t>CIVIL STATUS</t>
+  </si>
+  <si>
+    <t>EDUCATIONAL ATTAINMENT</t>
+  </si>
+  <si>
+    <t>CONTACT NUMBER</t>
+  </si>
+  <si>
+    <t>STREET ADDRESS</t>
+  </si>
+  <si>
+    <t>BARANGAY ADDRESS</t>
+  </si>
+  <si>
+    <t>CITY ADDRESS</t>
+  </si>
+  <si>
+    <t>PROVINCE ADDRESS</t>
+  </si>
+  <si>
+    <t>ZIP CODE</t>
+  </si>
+  <si>
+    <t>ECONOMIC ACTIVITY</t>
+  </si>
+  <si>
+    <t>DATE CREATION</t>
   </si>
 </sst>
 </file>
@@ -411,26 +450,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H2"/>
+  <dimension ref="A2:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,19 +489,49 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
+      <c r="R2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
